--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -3331,6 +3331,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4447,7 +4448,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5092,6 +5094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -188,24 +188,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Velasco Sanchez David</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
     <t>Duran Amezcua Maria Angelica</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
+    <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -224,24 +224,54 @@
     <t>ANGEL</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
     <t>CONCHE</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>MARRON</t>
+  </si>
+  <si>
     <t>MARIA</t>
   </si>
   <si>
@@ -251,6 +281,12 @@
     <t>MONROY</t>
   </si>
   <si>
+    <t>OROPEZA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>REYES</t>
   </si>
   <si>
@@ -266,40 +302,67 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>OLMOS</t>
   </si>
   <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>ARGAES</t>
+  </si>
+  <si>
+    <t>TENTZOHUA</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>OLTEHUA</t>
   </si>
   <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
     <t>ZAMUDIO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>BLASQUEZ</t>
   </si>
   <si>
     <t>JIMENEZ</t>
   </si>
   <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
     <t>SOLANO</t>
   </si>
   <si>
-    <t>GARCIA</t>
+    <t>OSORIO</t>
   </si>
   <si>
     <t>OCHOA</t>
@@ -311,42 +374,96 @@
     <t>TRUJILLO</t>
   </si>
   <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>AMECA</t>
+  </si>
+  <si>
     <t>NUÑEZ</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>HUGO JORGE</t>
   </si>
   <si>
     <t>CHRISTIAN</t>
   </si>
   <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
     <t>GABRIEL</t>
   </si>
   <si>
+    <t>ROSENDO DANIEL</t>
+  </si>
+  <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
     <t>EDGAR ARMANDO</t>
   </si>
   <si>
     <t>LUIS ANGEL</t>
   </si>
   <si>
+    <t>LUIS ANTONIO</t>
+  </si>
+  <si>
     <t>EDWIN NEFTALY</t>
   </si>
   <si>
     <t>BRENDA</t>
   </si>
   <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>CESAR ADRIAN</t>
+  </si>
+  <si>
     <t>EZRA</t>
   </si>
   <si>
+    <t>DAVID</t>
+  </si>
+  <si>
     <t>AMALIO JARET</t>
   </si>
   <si>
     <t>OSVALDO</t>
   </si>
   <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ALONSO ELIAS</t>
+  </si>
+  <si>
     <t>MARCO TULIO</t>
   </si>
   <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
     <t>SALVADOR</t>
   </si>
   <si>
@@ -362,130 +479,13 @@
     <t>ERIK JAIR</t>
   </si>
   <si>
+    <t>GAMADIEL ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANGEL ISMAEL</t>
+  </si>
+  <si>
     <t>LUIS JASSIEL</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>MARRON</t>
-  </si>
-  <si>
-    <t>OROPEZA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ARGAES</t>
-  </si>
-  <si>
-    <t>TENTZOHUA</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>BLASQUEZ</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>AMECA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ROSENDO DANIEL</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>LUIS ANTONIO</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>CESAR ADRIAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ALONSO ELIAS</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>GAMADIEL ABRAHAM</t>
-  </si>
-  <si>
-    <t>ANGEL ISMAEL</t>
   </si>
   <si>
     <t>FELIPE</t>
@@ -972,22 +972,22 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1022,13 +1022,13 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1040,7 +1040,7 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -1087,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1099,13 +1099,13 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1149,22 +1149,22 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1208,22 +1208,22 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1267,22 +1267,22 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1323,10 +1323,10 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1335,7 +1335,7 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1385,22 +1385,22 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1453,13 +1453,13 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1500,10 +1500,10 @@
         <v>-1</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1512,7 +1512,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1550,19 +1550,19 @@
         <v>-1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1571,13 +1571,13 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1621,22 +1621,22 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1671,16 +1671,16 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1689,13 +1689,13 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1736,10 +1736,10 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1748,7 +1748,7 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1798,22 +1798,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1857,22 +1857,22 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I19">
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1922,16 +1922,16 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1972,10 +1972,10 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1984,7 +1984,7 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2031,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2043,13 +2043,13 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2102,13 +2102,13 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2161,13 +2161,13 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2211,22 +2211,22 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2270,16 +2270,16 @@
         <v>6</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2326,7 +2326,7 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2388,22 +2388,22 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2447,22 +2447,22 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2515,13 +2515,13 @@
         <v>-1</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2562,10 +2562,10 @@
         <v>8</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2574,13 +2574,13 @@
         <v>-1</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2621,7 +2621,7 @@
         <v>-1</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -2633,7 +2633,7 @@
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2683,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -2692,13 +2692,13 @@
         <v>-1</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2751,13 +2751,13 @@
         <v>-1</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L34">
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2801,22 +2801,22 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I35">
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2857,7 +2857,7 @@
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -2869,7 +2869,7 @@
         <v>-1</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>-1</v>
@@ -2919,22 +2919,22 @@
         <v>9</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I37">
         <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -2978,22 +2978,22 @@
         <v>6</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <v>-1</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3037,22 +3037,22 @@
         <v>8</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I39">
         <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L39">
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3137,30 +3137,30 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>58.33</v>
+        <v>61.11</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>41.67</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3169,30 +3169,30 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>61.11</v>
+        <v>63.89</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>38.89</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3201,30 +3201,30 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>63.89</v>
+        <v>77.78</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>36.11</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3233,30 +3233,30 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>77.78</v>
+      </c>
+      <c r="G5">
+        <v>22.22</v>
+      </c>
+      <c r="H5">
+        <v>6.4</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3268,27 +3268,27 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>91.67</v>
       </c>
       <c r="G6">
+        <v>8.33</v>
+      </c>
+      <c r="H6">
+        <v>6.6</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>9.5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -3297,19 +3297,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3325,7 +3325,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3363,16 +3363,16 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3383,16 +3383,16 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3403,16 +3403,16 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3423,16 +3423,16 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3443,13 +3443,13 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -3463,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3483,13 +3483,13 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -3497,99 +3497,99 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920147</v>
+        <v>18330051920140</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920147</v>
+        <v>18330051920143</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920147</v>
+        <v>18330051920143</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920147</v>
+        <v>18330051920141</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920152</v>
+        <v>18330051920141</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -3597,279 +3597,279 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920152</v>
+        <v>18330051920138</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920152</v>
+        <v>18330051920138</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920152</v>
+        <v>18330051920146</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920152</v>
+        <v>18330051920146</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920150</v>
+        <v>18330051920147</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920150</v>
+        <v>18330051920147</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920150</v>
+        <v>18330051920147</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920150</v>
+        <v>18330051920147</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920154</v>
+        <v>18330051920148</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920154</v>
+        <v>18330051920148</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920154</v>
+        <v>18330051920149</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920154</v>
+        <v>18330051920149</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920154</v>
+        <v>18330051920149</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920155</v>
+        <v>18330051920152</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
@@ -3877,19 +3877,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920155</v>
+        <v>18330051920152</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>58</v>
@@ -3897,19 +3897,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920155</v>
+        <v>18330051920152</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -3917,19 +3917,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920155</v>
+        <v>18330051920150</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -3937,59 +3937,59 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920159</v>
+        <v>18330051920150</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920159</v>
+        <v>18330051920150</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920159</v>
+        <v>18330051920150</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>57</v>
@@ -3997,39 +3997,39 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920159</v>
+        <v>18330051920153</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920069</v>
+        <v>18330051920153</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
         <v>56</v>
@@ -4037,39 +4037,39 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920069</v>
+        <v>18330051920154</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920163</v>
+        <v>18330051920154</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>57</v>
@@ -4077,119 +4077,119 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920163</v>
+        <v>18330051920154</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920164</v>
+        <v>18330051920155</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920164</v>
+        <v>18330051920155</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920164</v>
+        <v>18330051920155</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920164</v>
+        <v>18330051920155</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920170</v>
+        <v>18330051920020</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
@@ -4197,39 +4197,39 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920170</v>
+        <v>18330051920020</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920170</v>
+        <v>18330051920157</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
         <v>57</v>
@@ -4237,119 +4237,119 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920173</v>
+        <v>18330051920157</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920173</v>
+        <v>18330051920158</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920173</v>
+        <v>18330051920158</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920172</v>
+        <v>18330051920158</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920177</v>
+        <v>18330051920159</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920176</v>
+        <v>18330051920159</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -4357,19 +4357,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920176</v>
+        <v>18330051920159</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
         <v>57</v>
@@ -4377,62 +4377,1162 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920179</v>
+        <v>18330051920159</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920179</v>
+        <v>18330051920160</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
+        <v>18330051920160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330051920160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330051920160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920069</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920069</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920069</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920161</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920161</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920169</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18330051920169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>18330051920170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>18330051920170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920173</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920173</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920177</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920177</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920178</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920178</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920180</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
         <v>18330051920179</v>
       </c>
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920179</v>
+      </c>
+      <c r="B104" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920179</v>
+      </c>
+      <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920179</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920181</v>
+      </c>
+      <c r="B107" t="s">
         <v>97</v>
       </c>
-      <c r="D55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920181</v>
+      </c>
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" t="s">
         <v>5</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920182</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
+        <v>157</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4477,132 +5577,132 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920152</v>
+        <v>18330051920147</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920154</v>
+        <v>18330051920150</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920147</v>
+        <v>18330051920154</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920150</v>
+        <v>18330051920155</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920155</v>
+        <v>18330051920159</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920159</v>
+        <v>18330051920164</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920164</v>
+        <v>18330051920152</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4610,16 +5710,16 @@
         <v>18330051920170</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4627,47 +5727,47 @@
         <v>18330051920173</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920179</v>
+        <v>18330051920176</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920140</v>
+        <v>18330051920179</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4675,67 +5775,67 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920069</v>
+        <v>18330051920140</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920163</v>
+        <v>18330051920069</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920176</v>
+        <v>18330051920163</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920172</v>
+        <v>18330051920177</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4743,33 +5843,33 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920177</v>
+        <v>18330051920143</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920143</v>
+        <v>18330051920141</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4777,16 +5877,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920141</v>
+        <v>18330051920138</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4794,16 +5894,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920138</v>
+        <v>18330051920146</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4811,16 +5911,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920146</v>
+        <v>18330051920148</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4828,16 +5928,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920148</v>
+        <v>18330051920149</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
         <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4845,16 +5945,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920149</v>
+        <v>18330051920153</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4862,16 +5962,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920153</v>
+        <v>18330051920020</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4879,16 +5979,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920020</v>
+        <v>18330051920157</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4896,16 +5996,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920157</v>
+        <v>18330051920158</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4913,16 +6013,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920158</v>
+        <v>18330051920160</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4930,16 +6030,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920160</v>
+        <v>18330051920162</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4947,16 +6047,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920162</v>
+        <v>18330051920161</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4964,16 +6064,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18330051920161</v>
+        <v>18330051920166</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4981,16 +6081,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18330051920166</v>
+        <v>18330051920169</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4998,16 +6098,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18330051920169</v>
+        <v>18330051920172</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5018,13 +6118,13 @@
         <v>18330051920178</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5035,13 +6135,13 @@
         <v>18330051920180</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5052,10 +6152,10 @@
         <v>18330051920181</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
         <v>156</v>
@@ -5069,10 +6169,10 @@
         <v>18330051920182</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>157</v>
@@ -5088,7 +6188,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5123,232 +6223,692 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920140</v>
+        <v>18330051920143</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920140</v>
+        <v>18330051920143</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920069</v>
+        <v>18330051920141</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920069</v>
+        <v>18330051920141</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920163</v>
+        <v>18330051920138</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920163</v>
+        <v>18330051920138</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920176</v>
+        <v>18330051920146</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920176</v>
+        <v>18330051920146</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920172</v>
+        <v>18330051920148</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920177</v>
+        <v>18330051920148</v>
       </c>
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920020</v>
+      </c>
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920180</v>
+      </c>
+      <c r="B26" t="s">
         <v>95</v>
       </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>18330051920181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>18330051920182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>18330051920182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -188,19 +188,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Velasco Sanchez David</t>
   </si>
   <si>
-    <t>Hernández Mendoza Delfina</t>
+    <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
     <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>Aurioles Maldonado Luis Gustavo</t>
@@ -1019,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1078,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1314,7 +1314,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1450,7 +1450,7 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1491,7 +1491,7 @@
         <v>-1</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1568,7 +1568,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1668,7 +1668,7 @@
         <v>-1</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -1686,7 +1686,7 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -1727,7 +1727,7 @@
         <v>-1</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1963,7 +1963,7 @@
         <v>-1</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -1981,7 +1981,7 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -1990,7 +1990,7 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2099,7 +2099,7 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2158,7 +2158,7 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2285,7 +2285,7 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2317,7 +2317,7 @@
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2512,7 +2512,7 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -2689,7 +2689,7 @@
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -2748,7 +2748,7 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -2866,7 +2866,7 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K36">
         <v>10</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3137,30 +3137,27 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>61.11</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
+        <v>63.89</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>38.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3169,30 +3166,27 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>63.89</v>
-      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8.699999999999999</v>
+        <v>61.11</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>36.11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3201,30 +3195,30 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>77.78</v>
+        <v>72.22</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>22.22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3233,30 +3227,30 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>77.78</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>22.22</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3265,25 +3259,25 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>91.67</v>
+        <v>77.78</v>
       </c>
       <c r="G6">
-        <v>8.33</v>
+        <v>22.22</v>
       </c>
       <c r="H6">
         <v>6.6</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3325,7 +3319,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3369,10 +3363,10 @@
         <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3389,10 +3383,10 @@
         <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3409,10 +3403,10 @@
         <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3429,10 +3423,10 @@
         <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3449,10 +3443,10 @@
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3469,10 +3463,10 @@
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3489,10 +3483,10 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3509,7 +3503,7 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -3529,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -3549,7 +3543,7 @@
         <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -3569,7 +3563,7 @@
         <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3589,7 +3583,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -3612,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3632,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3652,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3672,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3692,7 +3686,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3712,7 +3706,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3729,7 +3723,7 @@
         <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -3737,22 +3731,22 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920147</v>
+        <v>18330051920148</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3772,24 +3766,24 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920148</v>
+        <v>18330051920149</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>57</v>
@@ -3809,107 +3803,107 @@
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920149</v>
+        <v>18330051920152</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920149</v>
+        <v>18330051920152</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920152</v>
+        <v>18330051920150</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920152</v>
+        <v>18330051920150</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920152</v>
+        <v>18330051920150</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -3932,84 +3926,84 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920150</v>
+        <v>18330051920153</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920150</v>
+        <v>18330051920153</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920150</v>
+        <v>18330051920154</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920153</v>
+        <v>18330051920154</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>57</v>
@@ -4017,39 +4011,39 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920153</v>
+        <v>18330051920155</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920154</v>
+        <v>18330051920155</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>56</v>
@@ -4057,99 +4051,99 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920154</v>
+        <v>18330051920155</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920154</v>
+        <v>18330051920155</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920155</v>
+        <v>18330051920020</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920155</v>
+        <v>18330051920020</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920155</v>
+        <v>18330051920157</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
         <v>57</v>
@@ -4157,79 +4151,79 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920155</v>
+        <v>18330051920157</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920020</v>
+        <v>18330051920158</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920020</v>
+        <v>18330051920158</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920157</v>
+        <v>18330051920158</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
         <v>57</v>
@@ -4237,199 +4231,199 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920157</v>
+        <v>18330051920159</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920158</v>
+        <v>18330051920159</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920158</v>
+        <v>18330051920160</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920158</v>
+        <v>18330051920160</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920159</v>
+        <v>18330051920160</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920159</v>
+        <v>18330051920069</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920159</v>
+        <v>18330051920069</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920159</v>
+        <v>18330051920069</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920160</v>
+        <v>18330051920163</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920160</v>
+        <v>18330051920163</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -4437,19 +4431,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920160</v>
+        <v>18330051920163</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
         <v>57</v>
@@ -4457,19 +4451,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920160</v>
+        <v>18330051920162</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
         <v>56</v>
@@ -4477,19 +4471,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920069</v>
+        <v>18330051920162</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
         <v>57</v>
@@ -4497,79 +4491,79 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920069</v>
+        <v>18330051920161</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920069</v>
+        <v>18330051920161</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920163</v>
+        <v>18330051920164</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920163</v>
+        <v>18330051920164</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
@@ -4577,39 +4571,39 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920163</v>
+        <v>18330051920164</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920163</v>
+        <v>18330051920164</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>58</v>
@@ -4617,119 +4611,119 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920162</v>
+        <v>18330051920164</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920162</v>
+        <v>18330051920166</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>18330051920161</v>
+        <v>18330051920166</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>18330051920161</v>
+        <v>18330051920169</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>18330051920161</v>
+        <v>18330051920169</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18330051920164</v>
+        <v>18330051920170</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
         <v>56</v>
@@ -4737,79 +4731,79 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>18330051920164</v>
+        <v>18330051920170</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18330051920164</v>
+        <v>18330051920170</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>18330051920164</v>
+        <v>18330051920173</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>18330051920164</v>
+        <v>18330051920173</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
         <v>59</v>
@@ -4817,39 +4811,39 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>18330051920166</v>
+        <v>18330051920173</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>18330051920166</v>
+        <v>18330051920173</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
         <v>56</v>
@@ -4857,19 +4851,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>18330051920169</v>
+        <v>18330051920173</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
         <v>57</v>
@@ -4877,19 +4871,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>18330051920169</v>
+        <v>18330051920172</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
         <v>56</v>
@@ -4897,79 +4891,79 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>18330051920170</v>
+        <v>18330051920172</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>18330051920170</v>
+        <v>18330051920172</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>18330051920170</v>
+        <v>18330051920177</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>18330051920170</v>
+        <v>18330051920177</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
         <v>56</v>
@@ -4977,19 +4971,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>18330051920173</v>
+        <v>18330051920177</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
         <v>57</v>
@@ -4997,119 +4991,119 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>18330051920173</v>
+        <v>18330051920176</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>18330051920173</v>
+        <v>18330051920176</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>18330051920173</v>
+        <v>18330051920178</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>18330051920173</v>
+        <v>18330051920178</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>18330051920172</v>
+        <v>18330051920180</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>18330051920172</v>
+        <v>18330051920180</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
         <v>56</v>
@@ -5117,19 +5111,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>18330051920172</v>
+        <v>18330051920179</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
         <v>57</v>
@@ -5137,119 +5131,119 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>18330051920177</v>
+        <v>18330051920179</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18330051920177</v>
+        <v>18330051920179</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18330051920177</v>
+        <v>18330051920179</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>18330051920177</v>
+        <v>18330051920181</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>18330051920176</v>
+        <v>18330051920181</v>
       </c>
       <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
         <v>93</v>
       </c>
-      <c r="C95" t="s">
-        <v>117</v>
-      </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>18330051920176</v>
+        <v>18330051920182</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
         <v>56</v>
@@ -5257,282 +5251,22 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>18330051920176</v>
+        <v>18330051920182</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920178</v>
-      </c>
-      <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920178</v>
-      </c>
-      <c r="B99" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" t="s">
-        <v>118</v>
-      </c>
-      <c r="D99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920180</v>
-      </c>
-      <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100" t="s">
-        <v>154</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920180</v>
-      </c>
-      <c r="B101" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" t="s">
-        <v>154</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920179</v>
-      </c>
-      <c r="B102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920179</v>
-      </c>
-      <c r="B103" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" t="s">
-        <v>155</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920179</v>
-      </c>
-      <c r="B104" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" t="s">
-        <v>155</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920179</v>
-      </c>
-      <c r="B105" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920179</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920181</v>
-      </c>
-      <c r="B107" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D107" t="s">
-        <v>156</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920181</v>
-      </c>
-      <c r="B108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" t="s">
-        <v>93</v>
-      </c>
-      <c r="D108" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920182</v>
-      </c>
-      <c r="B109" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920182</v>
-      </c>
-      <c r="B110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5583,58 +5317,58 @@
         <v>122</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920147</v>
+        <v>18330051920164</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920150</v>
+        <v>18330051920173</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920154</v>
+        <v>18330051920150</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5651,38 +5385,38 @@
         <v>135</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920159</v>
+        <v>18330051920179</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920164</v>
+        <v>18330051920140</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5690,257 +5424,257 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920152</v>
+        <v>18330051920147</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920170</v>
+        <v>18330051920158</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920173</v>
+        <v>18330051920160</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920176</v>
+        <v>18330051920069</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920179</v>
+        <v>18330051920163</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920140</v>
+        <v>18330051920170</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920069</v>
+        <v>18330051920172</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920163</v>
+        <v>18330051920177</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920177</v>
+        <v>18330051920143</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920143</v>
+        <v>18330051920141</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920141</v>
+        <v>18330051920138</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920138</v>
+        <v>18330051920146</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920146</v>
+        <v>18330051920148</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920148</v>
+        <v>18330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920149</v>
+        <v>18330051920152</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5957,75 +5691,75 @@
         <v>133</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920020</v>
+        <v>18330051920154</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920157</v>
+        <v>18330051920020</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920158</v>
+        <v>18330051920157</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920160</v>
+        <v>18330051920159</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6042,7 +5776,7 @@
         <v>143</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6059,7 +5793,7 @@
         <v>144</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6076,7 +5810,7 @@
         <v>146</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6093,24 +5827,24 @@
         <v>147</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18330051920172</v>
+        <v>18330051920176</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6127,7 +5861,7 @@
         <v>153</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6144,7 +5878,7 @@
         <v>154</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6161,7 +5895,7 @@
         <v>156</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6178,7 +5912,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6188,7 +5922,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6218,7 +5952,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6238,10 +5972,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6261,10 +5995,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6284,10 +6018,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6307,10 +6041,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6330,10 +6064,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6353,10 +6087,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6376,10 +6110,10 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6399,10 +6133,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6422,10 +6156,10 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6445,470 +6179,654 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920153</v>
+        <v>18330051920149</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920153</v>
+        <v>18330051920149</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920020</v>
+        <v>18330051920152</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920020</v>
+        <v>18330051920152</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920157</v>
+        <v>18330051920153</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920157</v>
+        <v>18330051920153</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920162</v>
+        <v>18330051920020</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18330051920162</v>
+        <v>18330051920020</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920166</v>
+        <v>18330051920157</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>18330051920166</v>
+        <v>18330051920157</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>18330051920169</v>
+        <v>18330051920162</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>18330051920169</v>
+        <v>18330051920162</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>18330051920178</v>
+        <v>18330051920161</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>18330051920178</v>
+        <v>18330051920161</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>18330051920180</v>
+        <v>18330051920166</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>18330051920180</v>
+        <v>18330051920166</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>18330051920181</v>
+        <v>18330051920169</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>18330051920181</v>
+        <v>18330051920169</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>18330051920182</v>
+        <v>18330051920176</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <v>18330051920176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>18330051920178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>18330051920178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>18330051920180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>18330051920180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>18330051920181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>18330051920181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
         <v>18330051920182</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>121</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D38" t="s">
         <v>157</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
         <v>57</v>
       </c>
-      <c r="G31">
-        <v>10</v>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>18330051920182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -230,262 +230,262 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARRON</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MONROY</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>BLASQUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>AMECA</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>HUGO JORGE</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>EDGAR ARMANDO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>EDWIN NEFTALY</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
+    <t>CESAR ADRIAN</t>
+  </si>
+  <si>
+    <t>EZRA</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>AMALIO JARET</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>MARCO TULIO</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>YAHIR DE JESUS</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>SAUL BRANDON</t>
+  </si>
+  <si>
+    <t>ERIK JAIR</t>
+  </si>
+  <si>
+    <t>ANGEL ISMAEL</t>
+  </si>
+  <si>
+    <t>LUIS JASSIEL</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
     <t>CARRASCO</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>CERON</t>
   </si>
   <si>
     <t>CERVANTES</t>
   </si>
   <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>HERRERA</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARRON</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MONROY</t>
-  </si>
-  <si>
     <t>OROPEZA</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>VALLEJO</t>
   </si>
   <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
     <t>VERA</t>
   </si>
   <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
     <t>ARGAES</t>
   </si>
   <si>
     <t>TENTZOHUA</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>ZAMUDIO</t>
-  </si>
-  <si>
-    <t>BLASQUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>ORTEGA</t>
   </si>
   <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
     <t>OSORIO</t>
   </si>
   <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>AMECA</t>
-  </si>
-  <si>
-    <t>NUÑEZ</t>
-  </si>
-  <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>HUGO JORGE</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
     <t>ALEXANDER</t>
   </si>
   <si>
     <t>CARLOS</t>
   </si>
   <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
     <t>ROSENDO DANIEL</t>
   </si>
   <si>
     <t>GONZALO</t>
   </si>
   <si>
-    <t>EDGAR ARMANDO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
     <t>LUIS ANTONIO</t>
   </si>
   <si>
-    <t>EDWIN NEFTALY</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
     <t>ANDRES</t>
   </si>
   <si>
-    <t>CESAR ADRIAN</t>
-  </si>
-  <si>
-    <t>EZRA</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>AMALIO JARET</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
     <t>MARIA ISABEL</t>
   </si>
   <si>
     <t>ALONSO ELIAS</t>
   </si>
   <si>
-    <t>MARCO TULIO</t>
-  </si>
-  <si>
     <t>JESUS</t>
   </si>
   <si>
     <t>NATANAEL</t>
   </si>
   <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>YAHIR DE JESUS</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>SAUL BRANDON</t>
-  </si>
-  <si>
-    <t>ERIK JAIR</t>
-  </si>
-  <si>
     <t>GAMADIEL ABRAHAM</t>
-  </si>
-  <si>
-    <t>ANGEL ISMAEL</t>
-  </si>
-  <si>
-    <t>LUIS JASSIEL</t>
   </si>
   <si>
     <t>FELIPE</t>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -1220,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1270,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>9</v>
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1388,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -1488,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1565,7 +1565,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -1624,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -1665,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1801,7 +1801,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -1860,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -1869,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -1919,7 +1919,7 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -1960,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2019,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -2037,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2105,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>6</v>
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -2214,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -2223,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
         <v>6</v>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -2282,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M26">
         <v>6</v>
@@ -2314,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -2391,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -2400,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M28">
         <v>6</v>
@@ -2450,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -2459,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2509,7 +2509,7 @@
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -2577,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -2745,7 +2745,7 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <v>6</v>
@@ -2804,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J35">
         <v>9</v>
@@ -2813,7 +2813,7 @@
         <v>10</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -2845,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -2922,7 +2922,7 @@
         <v>9</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <v>10</v>
@@ -2981,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -2990,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M38">
         <v>6</v>
@@ -3040,7 +3040,7 @@
         <v>9</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <v>10</v>
@@ -3049,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M39">
         <v>7</v>
@@ -3137,22 +3137,25 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>52.78</v>
       </c>
       <c r="G2">
-        <v>63.89</v>
+        <v>13.89</v>
+      </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
       </c>
       <c r="I2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3166,22 +3169,25 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>55.56</v>
       </c>
       <c r="G3">
-        <v>61.11</v>
+        <v>44.44</v>
+      </c>
+      <c r="H3">
+        <v>7.9</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3319,7 +3325,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3357,16 +3363,16 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3377,16 +3383,16 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3397,16 +3403,16 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3417,16 +3423,16 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,16 +3443,16 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3457,16 +3463,16 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3477,16 +3483,16 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3497,10 +3503,10 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -3517,30 +3523,30 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920143</v>
+        <v>18330051920141</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -3551,16 +3557,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920141</v>
+        <v>18330051920147</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -3571,56 +3577,56 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920141</v>
+        <v>18330051920147</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920138</v>
+        <v>18330051920147</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920138</v>
+        <v>18330051920152</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -3631,76 +3637,76 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920146</v>
+        <v>18330051920150</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920146</v>
+        <v>18330051920150</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920147</v>
+        <v>18330051920150</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920147</v>
+        <v>18330051920150</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -3711,36 +3717,36 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920147</v>
+        <v>18330051920154</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920148</v>
+        <v>18330051920154</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -3751,36 +3757,36 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920148</v>
+        <v>18330051920155</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920149</v>
+        <v>18330051920155</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3791,196 +3797,196 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920149</v>
+        <v>18330051920155</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920152</v>
+        <v>18330051920155</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920152</v>
+        <v>18330051920158</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920150</v>
+        <v>18330051920159</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920150</v>
+        <v>18330051920160</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920150</v>
+        <v>18330051920160</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920150</v>
+        <v>18330051920069</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920153</v>
+        <v>18330051920069</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920153</v>
+        <v>18330051920163</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920154</v>
+        <v>18330051920163</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -3991,16 +3997,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920154</v>
+        <v>18330051920163</v>
       </c>
       <c r="B34" t="s">
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -4011,296 +4017,296 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920155</v>
+        <v>18330051920164</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920155</v>
+        <v>18330051920164</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920155</v>
+        <v>18330051920164</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920155</v>
+        <v>18330051920164</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920020</v>
+        <v>18330051920164</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920020</v>
+        <v>18330051920170</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920157</v>
+        <v>18330051920170</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920157</v>
+        <v>18330051920173</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920158</v>
+        <v>18330051920173</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920158</v>
+        <v>18330051920173</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920158</v>
+        <v>18330051920173</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920159</v>
+        <v>18330051920173</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920159</v>
+        <v>18330051920172</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920160</v>
+        <v>18330051920172</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920160</v>
+        <v>18330051920177</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -4311,16 +4317,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920160</v>
+        <v>18330051920177</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -4331,7 +4337,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920069</v>
+        <v>18330051920176</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
@@ -4340,18 +4346,18 @@
         <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920069</v>
+        <v>18330051920176</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
@@ -4360,7 +4366,7 @@
         <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -4371,56 +4377,56 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920069</v>
+        <v>18330051920180</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920163</v>
+        <v>18330051920179</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920163</v>
+        <v>18330051920179</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -4431,841 +4437,41 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920163</v>
+        <v>18330051920179</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920162</v>
+        <v>18330051920179</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920162</v>
-      </c>
-      <c r="B58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920161</v>
-      </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920161</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920164</v>
-      </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920164</v>
-      </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920164</v>
-      </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920164</v>
-      </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920166</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920166</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920169</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920169</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920170</v>
-      </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920170</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920173</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920173</v>
-      </c>
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" t="s">
-        <v>149</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920173</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920173</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920173</v>
-      </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920172</v>
-      </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" t="s">
-        <v>150</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920172</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920172</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920177</v>
-      </c>
-      <c r="B81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>18330051920177</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920177</v>
-      </c>
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920176</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920178</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" t="s">
-        <v>153</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920180</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" t="s">
-        <v>119</v>
-      </c>
-      <c r="D88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920180</v>
-      </c>
-      <c r="B89" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920179</v>
-      </c>
-      <c r="B90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920179</v>
-      </c>
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920179</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92" t="s">
-        <v>155</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920179</v>
-      </c>
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920181</v>
-      </c>
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" t="s">
-        <v>156</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920181</v>
-      </c>
-      <c r="B95" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" t="s">
-        <v>156</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920182</v>
-      </c>
-      <c r="B96" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920182</v>
-      </c>
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5311,10 +4517,10 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5325,13 +4531,13 @@
         <v>18330051920164</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5342,13 +4548,13 @@
         <v>18330051920173</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5359,13 +4565,13 @@
         <v>18330051920150</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -5376,13 +4582,13 @@
         <v>18330051920155</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5393,13 +4599,13 @@
         <v>18330051920179</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -5413,10 +4619,10 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5427,13 +4633,13 @@
         <v>18330051920147</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5441,16 +4647,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920158</v>
+        <v>18330051920163</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5458,53 +4664,53 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920160</v>
+        <v>18330051920154</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920069</v>
+        <v>18330051920160</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920163</v>
+        <v>18330051920069</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5512,16 +4718,16 @@
         <v>18330051920170</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5529,16 +4735,16 @@
         <v>18330051920172</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5546,30 +4752,30 @@
         <v>18330051920177</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920143</v>
+        <v>18330051920176</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5577,308 +4783,308 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920141</v>
+        <v>18330051920143</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920138</v>
+        <v>18330051920141</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920146</v>
+        <v>18330051920152</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920148</v>
+        <v>18330051920158</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920149</v>
+        <v>18330051920159</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920152</v>
+        <v>18330051920180</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920153</v>
+        <v>18330051920138</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920154</v>
+        <v>18330051920146</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920020</v>
+        <v>18330051920148</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920157</v>
+        <v>18330051920149</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920159</v>
+        <v>18330051920153</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920162</v>
+        <v>18330051920020</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920161</v>
+        <v>18330051920157</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18330051920166</v>
+        <v>18330051920162</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18330051920169</v>
+        <v>18330051920161</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18330051920176</v>
+        <v>18330051920166</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18330051920178</v>
+        <v>18330051920169</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>18330051920180</v>
+        <v>18330051920178</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5886,16 +5092,16 @@
         <v>18330051920181</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>156</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5903,16 +5109,16 @@
         <v>18330051920182</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>157</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5922,7 +5128,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5957,16 +5163,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920143</v>
+        <v>18330051920152</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5975,21 +5181,21 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920143</v>
+        <v>18330051920152</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -6003,22 +5209,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920141</v>
+        <v>18330051920159</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6026,45 +5232,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920141</v>
+        <v>18330051920159</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920138</v>
+        <v>18330051920160</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6072,22 +5278,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920138</v>
+        <v>18330051920160</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6095,22 +5301,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920146</v>
+        <v>18330051920069</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -6118,16 +5324,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920146</v>
+        <v>18330051920069</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -6141,22 +5347,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920148</v>
+        <v>18330051920170</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -6164,16 +5370,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920148</v>
+        <v>18330051920170</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -6187,16 +5393,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920149</v>
+        <v>18330051920172</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -6210,22 +5416,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920149</v>
+        <v>18330051920172</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6233,22 +5439,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920152</v>
+        <v>18330051920177</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -6256,16 +5462,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920152</v>
+        <v>18330051920177</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -6279,16 +5485,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920153</v>
+        <v>18330051920176</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -6302,16 +5508,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920153</v>
+        <v>18330051920176</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -6325,16 +5531,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920020</v>
+        <v>18330051920143</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -6348,22 +5554,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18330051920020</v>
+        <v>18330051920141</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -6371,22 +5577,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920157</v>
+        <v>18330051920158</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -6394,16 +5600,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>18330051920157</v>
+        <v>18330051920180</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -6412,420 +5618,6 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>18330051920162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>18330051920162</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>18330051920161</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>18330051920161</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>18330051920166</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>18330051920166</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>18330051920169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>18330051920169</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>18330051920176</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>18330051920176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>18330051920178</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>18330051920178</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>18330051920180</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>18330051920180</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>18330051920181</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>18330051920181</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>18330051920182</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>18330051920182</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -3369,10 +3369,10 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3389,10 +3389,10 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3409,10 +3409,10 @@
         <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3449,10 +3449,10 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3569,10 +3569,10 @@
         <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3589,10 +3589,10 @@
         <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3609,10 +3609,10 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3649,10 +3649,10 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3669,10 +3669,10 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3689,10 +3689,10 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3709,10 +3709,10 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3769,10 +3769,10 @@
         <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3789,10 +3789,10 @@
         <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3809,10 +3809,10 @@
         <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3829,10 +3829,10 @@
         <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3929,10 +3929,10 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3949,10 +3949,10 @@
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4029,10 +4029,10 @@
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4049,10 +4049,10 @@
         <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4069,10 +4069,10 @@
         <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4089,10 +4089,10 @@
         <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4109,10 +4109,10 @@
         <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4169,10 +4169,10 @@
         <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4189,10 +4189,10 @@
         <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4229,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4249,10 +4249,10 @@
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4349,10 +4349,10 @@
         <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4369,10 +4369,10 @@
         <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4409,10 +4409,10 @@
         <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4429,10 +4429,10 @@
         <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4449,10 +4449,10 @@
         <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4469,10 +4469,10 @@
         <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -3369,10 +3369,10 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3389,10 +3389,10 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3409,10 +3409,10 @@
         <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3449,10 +3449,10 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3469,10 +3469,10 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3509,10 +3509,10 @@
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3569,10 +3569,10 @@
         <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3589,10 +3589,10 @@
         <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3669,10 +3669,10 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3689,10 +3689,10 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3729,10 +3729,10 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3749,10 +3749,10 @@
         <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3789,10 +3789,10 @@
         <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3809,10 +3809,10 @@
         <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3969,10 +3969,10 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3989,10 +3989,10 @@
         <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4009,10 +4009,10 @@
         <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4029,10 +4029,10 @@
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4049,10 +4049,10 @@
         <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4109,10 +4109,10 @@
         <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4129,10 +4129,10 @@
         <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4149,10 +4149,10 @@
         <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4169,10 +4169,10 @@
         <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4189,10 +4189,10 @@
         <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4209,10 +4209,10 @@
         <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4229,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4249,10 +4249,10 @@
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4449,10 +4449,10 @@
         <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4469,10 +4469,10 @@
         <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -3929,10 +3929,10 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3949,10 +3949,10 @@
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">

--- a/grupos/6AEM - Estadisticos 2020.xlsx
+++ b/grupos/6AEM - Estadisticos 2020.xlsx
@@ -191,7 +191,7 @@
     <t>Hernández Mendoza Delfina</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Ortega Valle Manuel</t>
@@ -200,7 +200,7 @@
     <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Aurioles Maldonado Luis Gustavo</t>
